--- a/state_results/Rivers/MakakahiatHamua_da24b46cc3.xlsx
+++ b/state_results/Rivers/MakakahiatHamua_da24b46cc3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U261"/>
+  <dimension ref="A1:U279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.90765919085809</v>
+        <v>1.95450197500114</v>
       </c>
       <c r="H2" t="n">
         <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3875</v>
+        <v>4.85</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>3.97986</v>
+        <v>4.355</v>
       </c>
       <c r="O2" t="n">
         <v>1832392</v>
@@ -651,7 +651,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0096673041080739</v>
+        <v>0.0096699056181688</v>
       </c>
       <c r="H3" t="n">
         <v>0.022</v>
@@ -732,7 +732,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0096673041080739</v>
+        <v>0.0096699056181688</v>
       </c>
       <c r="H4" t="n">
         <v>0.022</v>
@@ -1230,7 +1230,7 @@
         <v>0.00392</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0071843413524428</v>
+        <v>0.0071928859444501</v>
       </c>
       <c r="H10" t="n">
         <v>0.1</v>
@@ -1311,7 +1311,7 @@
         <v>0.00392</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0071843413524428</v>
+        <v>0.0071928859444501</v>
       </c>
       <c r="H11" t="n">
         <v>0.1</v>
@@ -1392,7 +1392,7 @@
         <v>0.64</v>
       </c>
       <c r="G12" t="n">
-        <v>0.644891687495072</v>
+        <v>0.644919561116692</v>
       </c>
       <c r="H12" t="n">
         <v>2.93</v>
@@ -1473,7 +1473,7 @@
         <v>0.64</v>
       </c>
       <c r="G13" t="n">
-        <v>0.644891687495072</v>
+        <v>0.644919561116692</v>
       </c>
       <c r="H13" t="n">
         <v>2.93</v>
@@ -1550,7 +1550,7 @@
         <v>0.595</v>
       </c>
       <c r="G14" t="n">
-        <v>0.603845779667344</v>
+        <v>0.603867173830919</v>
       </c>
       <c r="H14" t="n">
         <v>2.959</v>
@@ -1567,7 +1567,7 @@
         <v>1.0369</v>
       </c>
       <c r="N14" t="n">
-        <v>1.3669</v>
+        <v>1.36705</v>
       </c>
       <c r="O14" t="n">
         <v>1832392</v>
@@ -1627,7 +1627,7 @@
         <v>0.595</v>
       </c>
       <c r="G15" t="n">
-        <v>0.603845779667344</v>
+        <v>0.603867173830919</v>
       </c>
       <c r="H15" t="n">
         <v>2.959</v>
@@ -1644,7 +1644,7 @@
         <v>1.0369</v>
       </c>
       <c r="N15" t="n">
-        <v>1.3669</v>
+        <v>1.36705</v>
       </c>
       <c r="O15" t="n">
         <v>1832392</v>
@@ -1862,13 +1862,13 @@
         <v>1.8</v>
       </c>
       <c r="G18" t="n">
-        <v>1.94238646358536</v>
+        <v>1.98922924772842</v>
       </c>
       <c r="H18" t="n">
         <v>6.98</v>
       </c>
       <c r="I18" t="n">
-        <v>4.73468</v>
+        <v>5.15647</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1876,10 +1876,10 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.72387</v>
+        <v>3.83</v>
       </c>
       <c r="O18" t="n">
         <v>1832392</v>
@@ -1943,7 +1943,7 @@
         <v>0.008</v>
       </c>
       <c r="G19" t="n">
-        <v>0.008308737328125201</v>
+        <v>0.008312110125862001</v>
       </c>
       <c r="H19" t="n">
         <v>0.022</v>
@@ -2024,7 +2024,7 @@
         <v>0.008</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008308737328125201</v>
+        <v>0.008312110125862001</v>
       </c>
       <c r="H20" t="n">
         <v>0.022</v>
@@ -2522,7 +2522,7 @@
         <v>0.00383</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0055331812520914</v>
+        <v>0.0055444363732017</v>
       </c>
       <c r="H26" t="n">
         <v>0.0326086471384734</v>
@@ -2603,7 +2603,7 @@
         <v>0.00383</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0055331812520914</v>
+        <v>0.0055444363732017</v>
       </c>
       <c r="H27" t="n">
         <v>0.0326086471384734</v>
@@ -2684,7 +2684,7 @@
         <v>0.62</v>
       </c>
       <c r="G28" t="n">
-        <v>0.569318095413872</v>
+        <v>0.569339106545344</v>
       </c>
       <c r="H28" t="n">
         <v>1.45</v>
@@ -2765,7 +2765,7 @@
         <v>0.62</v>
       </c>
       <c r="G29" t="n">
-        <v>0.569318095413872</v>
+        <v>0.569339106545344</v>
       </c>
       <c r="H29" t="n">
         <v>1.45</v>
@@ -2842,13 +2842,13 @@
         <v>0.5665</v>
       </c>
       <c r="G30" t="n">
-        <v>0.552429113000678</v>
+        <v>0.552458840497586</v>
       </c>
       <c r="H30" t="n">
         <v>1.46</v>
       </c>
       <c r="I30" t="n">
-        <v>1.3255</v>
+        <v>1.32575</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2859,7 +2859,7 @@
         <v>1.0271</v>
       </c>
       <c r="N30" t="n">
-        <v>1.1928</v>
+        <v>1.19265</v>
       </c>
       <c r="O30" t="n">
         <v>1832392</v>
@@ -2919,13 +2919,13 @@
         <v>0.5665</v>
       </c>
       <c r="G31" t="n">
-        <v>0.552429113000678</v>
+        <v>0.552458840497586</v>
       </c>
       <c r="H31" t="n">
         <v>1.46</v>
       </c>
       <c r="I31" t="n">
-        <v>1.3255</v>
+        <v>1.32575</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
         <v>1.0271</v>
       </c>
       <c r="N31" t="n">
-        <v>1.1928</v>
+        <v>1.19265</v>
       </c>
       <c r="O31" t="n">
         <v>1832392</v>
@@ -3308,13 +3308,13 @@
         <v>1.8</v>
       </c>
       <c r="G36" t="n">
-        <v>1.92112841863919</v>
+        <v>1.96818386225665</v>
       </c>
       <c r="H36" t="n">
         <v>6.98</v>
       </c>
       <c r="I36" t="n">
-        <v>4.73468</v>
+        <v>5.15647</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>3.54387</v>
+        <v>3.65</v>
       </c>
       <c r="O36" t="n">
         <v>1832392</v>
@@ -3389,7 +3389,7 @@
         <v>0.007</v>
       </c>
       <c r="G37" t="n">
-        <v>0.007602967383167</v>
+        <v>0.0076060999073979</v>
       </c>
       <c r="H37" t="n">
         <v>0.022</v>
@@ -3470,7 +3470,7 @@
         <v>0.007</v>
       </c>
       <c r="G38" t="n">
-        <v>0.007602967383167</v>
+        <v>0.0076060999073979</v>
       </c>
       <c r="H38" t="n">
         <v>0.022</v>
@@ -3968,7 +3968,7 @@
         <v>0.00455</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0063673064542842</v>
+        <v>0.0063768477085196</v>
       </c>
       <c r="H44" t="n">
         <v>0.0326086471384734</v>
@@ -4049,7 +4049,7 @@
         <v>0.00455</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0063673064542842</v>
+        <v>0.0063768477085196</v>
       </c>
       <c r="H45" t="n">
         <v>0.0326086471384734</v>
@@ -4288,13 +4288,13 @@
         <v>0.548</v>
       </c>
       <c r="G48" t="n">
-        <v>0.551897746027624</v>
+        <v>0.551904448705673</v>
       </c>
       <c r="H48" t="n">
         <v>1.444</v>
       </c>
       <c r="I48" t="n">
-        <v>1.2095</v>
+        <v>1.20975</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4305,7 +4305,7 @@
         <v>1.0271</v>
       </c>
       <c r="N48" t="n">
-        <v>1.1752</v>
+        <v>1.17485</v>
       </c>
       <c r="O48" t="n">
         <v>1832392</v>
@@ -4365,13 +4365,13 @@
         <v>0.548</v>
       </c>
       <c r="G49" t="n">
-        <v>0.551897746027624</v>
+        <v>0.551904448705673</v>
       </c>
       <c r="H49" t="n">
         <v>1.444</v>
       </c>
       <c r="I49" t="n">
-        <v>1.2095</v>
+        <v>1.20975</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -4382,7 +4382,7 @@
         <v>1.0271</v>
       </c>
       <c r="N49" t="n">
-        <v>1.1752</v>
+        <v>1.17485</v>
       </c>
       <c r="O49" t="n">
         <v>1832392</v>
@@ -4835,13 +4835,13 @@
         <v>1.8</v>
       </c>
       <c r="G55" t="n">
-        <v>2.04259440483938</v>
+        <v>2.0806762060758</v>
       </c>
       <c r="H55" t="n">
         <v>6.98</v>
       </c>
       <c r="I55" t="n">
-        <v>5.1625</v>
+        <v>5.23552</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -4849,10 +4849,10 @@
         <v>1.8</v>
       </c>
       <c r="M55" t="n">
-        <v>2.962</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>3.91241</v>
+        <v>4.91</v>
       </c>
       <c r="O55" t="n">
         <v>1832392</v>
@@ -4916,7 +4916,7 @@
         <v>0.007</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0072855614328692</v>
+        <v>0.0072878538029886</v>
       </c>
       <c r="H56" t="n">
         <v>0.022</v>
@@ -4997,7 +4997,7 @@
         <v>0.007</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0072855614328692</v>
+        <v>0.0072878538029886</v>
       </c>
       <c r="H57" t="n">
         <v>0.022</v>
@@ -5495,7 +5495,7 @@
         <v>0.00524</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0065628797009377</v>
+        <v>0.0065680664083421</v>
       </c>
       <c r="H63" t="n">
         <v>0.0326086471384734</v>
@@ -5576,7 +5576,7 @@
         <v>0.00524</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0065628797009377</v>
+        <v>0.0065680664083421</v>
       </c>
       <c r="H64" t="n">
         <v>0.0326086471384734</v>
@@ -5832,7 +5832,7 @@
         <v>0.9238</v>
       </c>
       <c r="N67" t="n">
-        <v>1.0822</v>
+        <v>1.08205</v>
       </c>
       <c r="O67" t="n">
         <v>1832392</v>
@@ -5909,7 +5909,7 @@
         <v>0.9238</v>
       </c>
       <c r="N68" t="n">
-        <v>1.0822</v>
+        <v>1.08205</v>
       </c>
       <c r="O68" t="n">
         <v>1832392</v>
@@ -6439,13 +6439,13 @@
         <v>1.775</v>
       </c>
       <c r="G75" t="n">
-        <v>1.90359279657858</v>
+        <v>1.94417130955908</v>
       </c>
       <c r="H75" t="n">
         <v>6.98</v>
       </c>
       <c r="I75" t="n">
-        <v>3.85099</v>
+        <v>4.8669</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -6453,7 +6453,7 @@
         <v>1.7</v>
       </c>
       <c r="M75" t="n">
-        <v>2.8</v>
+        <v>2.864</v>
       </c>
       <c r="N75" t="n">
         <v>3.459</v>
@@ -6520,7 +6520,7 @@
         <v>0.007</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0070576119345253</v>
+        <v>0.0070591899542823</v>
       </c>
       <c r="H76" t="n">
         <v>0.031</v>
@@ -6601,7 +6601,7 @@
         <v>0.007</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0070576119345253</v>
+        <v>0.0070591899542823</v>
       </c>
       <c r="H77" t="n">
         <v>0.031</v>
@@ -7099,7 +7099,7 @@
         <v>0.005</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0076349446498024</v>
+        <v>0.0076389923946738</v>
       </c>
       <c r="H83" t="n">
         <v>0.06980433477300969</v>
@@ -7180,7 +7180,7 @@
         <v>0.005</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0076349446498024</v>
+        <v>0.0076389923946738</v>
       </c>
       <c r="H84" t="n">
         <v>0.06980433477300969</v>
@@ -7496,7 +7496,7 @@
         <v>0.5765</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5085166666666669</v>
+        <v>0.508545</v>
       </c>
       <c r="H88" t="n">
         <v>1.2</v>
@@ -7510,7 +7510,7 @@
         <v>0.131</v>
       </c>
       <c r="M88" t="n">
-        <v>0.8865</v>
+        <v>0.88679</v>
       </c>
       <c r="N88" t="n">
         <v>1.0419</v>
@@ -7573,7 +7573,7 @@
         <v>0.5765</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5085166666666669</v>
+        <v>0.508545</v>
       </c>
       <c r="H89" t="n">
         <v>1.2</v>
@@ -7587,7 +7587,7 @@
         <v>0.131</v>
       </c>
       <c r="M89" t="n">
-        <v>0.8865</v>
+        <v>0.88679</v>
       </c>
       <c r="N89" t="n">
         <v>1.0419</v>
@@ -8120,7 +8120,7 @@
         <v>1.8</v>
       </c>
       <c r="G96" t="n">
-        <v>1.94391636101379</v>
+        <v>1.9355686264441</v>
       </c>
       <c r="H96" t="n">
         <v>6.98</v>
@@ -8201,7 +8201,7 @@
         <v>0.006</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0065713645996164</v>
+        <v>0.0065720032999758</v>
       </c>
       <c r="H97" t="n">
         <v>0.031</v>
@@ -8282,7 +8282,7 @@
         <v>0.006</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0065713645996164</v>
+        <v>0.0065720032999758</v>
       </c>
       <c r="H98" t="n">
         <v>0.031</v>
@@ -8780,7 +8780,7 @@
         <v>0.00382</v>
       </c>
       <c r="G104" t="n">
-        <v>0.007992088860820101</v>
+        <v>0.007998649360483501</v>
       </c>
       <c r="H104" t="n">
         <v>0.06980433477300969</v>
@@ -8791,7 +8791,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.00207</v>
+        <v>0.0021</v>
       </c>
       <c r="M104" t="n">
         <v>0.01356</v>
@@ -8861,7 +8861,7 @@
         <v>0.00382</v>
       </c>
       <c r="G105" t="n">
-        <v>0.007992088860820101</v>
+        <v>0.007998649360483501</v>
       </c>
       <c r="H105" t="n">
         <v>0.06980433477300969</v>
@@ -8872,7 +8872,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.00207</v>
+        <v>0.0021</v>
       </c>
       <c r="M105" t="n">
         <v>0.01356</v>
@@ -8942,7 +8942,7 @@
         <v>0.484</v>
       </c>
       <c r="G106" t="n">
-        <v>0.477890902298867</v>
+        <v>0.477896371166268</v>
       </c>
       <c r="H106" t="n">
         <v>1.1914</v>
@@ -9023,7 +9023,7 @@
         <v>0.484</v>
       </c>
       <c r="G107" t="n">
-        <v>0.477890902298867</v>
+        <v>0.477896371166268</v>
       </c>
       <c r="H107" t="n">
         <v>1.1914</v>
@@ -9174,10 +9174,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.546</v>
+        <v>0.5462</v>
       </c>
       <c r="G109" t="n">
-        <v>0.496346518871167</v>
+        <v>0.496371923252528</v>
       </c>
       <c r="H109" t="n">
         <v>1.2</v>
@@ -9191,7 +9191,7 @@
         <v>0.065</v>
       </c>
       <c r="M109" t="n">
-        <v>0.8862</v>
+        <v>0.88622</v>
       </c>
       <c r="N109" t="n">
         <v>1.0118</v>
@@ -9251,10 +9251,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.546</v>
+        <v>0.5462</v>
       </c>
       <c r="G110" t="n">
-        <v>0.496346518871167</v>
+        <v>0.496371923252528</v>
       </c>
       <c r="H110" t="n">
         <v>1.2</v>
@@ -9268,7 +9268,7 @@
         <v>0.065</v>
       </c>
       <c r="M110" t="n">
-        <v>0.8862</v>
+        <v>0.88622</v>
       </c>
       <c r="N110" t="n">
         <v>1.0118</v>
@@ -9801,10 +9801,10 @@
         <v>1.675</v>
       </c>
       <c r="G117" t="n">
-        <v>1.78388734892803</v>
+        <v>1.77481372439576</v>
       </c>
       <c r="H117" t="n">
-        <v>6.19581805068931</v>
+        <v>5.77843132220477</v>
       </c>
       <c r="I117" t="n">
         <v>3.16</v>
@@ -9882,7 +9882,7 @@
         <v>0.0055</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0065630142644531</v>
+        <v>0.0065615770638185</v>
       </c>
       <c r="H118" t="n">
         <v>0.031</v>
@@ -9963,7 +9963,7 @@
         <v>0.0055</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0065630142644531</v>
+        <v>0.0065615770638185</v>
       </c>
       <c r="H119" t="n">
         <v>0.031</v>
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.00224</v>
+        <v>0.00231</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0074654643348832</v>
+        <v>0.007478661488402</v>
       </c>
       <c r="H125" t="n">
         <v>0.06980433477300969</v>
@@ -10472,7 +10472,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.00189</v>
+        <v>0.00195</v>
       </c>
       <c r="M125" t="n">
         <v>0.0139</v>
@@ -10539,10 +10539,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.00224</v>
+        <v>0.00231</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0074654643348832</v>
+        <v>0.007478661488402</v>
       </c>
       <c r="H126" t="n">
         <v>0.06980433477300969</v>
@@ -10553,7 +10553,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00189</v>
+        <v>0.00195</v>
       </c>
       <c r="M126" t="n">
         <v>0.0139</v>
@@ -10623,7 +10623,7 @@
         <v>0.484</v>
       </c>
       <c r="G127" t="n">
-        <v>0.474040078749698</v>
+        <v>0.474051630865015</v>
       </c>
       <c r="H127" t="n">
         <v>1.1914</v>
@@ -10704,7 +10704,7 @@
         <v>0.484</v>
       </c>
       <c r="G128" t="n">
-        <v>0.474040078749698</v>
+        <v>0.474051630865015</v>
       </c>
       <c r="H128" t="n">
         <v>1.1914</v>
@@ -10855,10 +10855,10 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.529</v>
+        <v>0.5292</v>
       </c>
       <c r="G130" t="n">
-        <v>0.492138828882999</v>
+        <v>0.492161331153109</v>
       </c>
       <c r="H130" t="n">
         <v>1.2</v>
@@ -10872,7 +10872,7 @@
         <v>0.065</v>
       </c>
       <c r="M130" t="n">
-        <v>0.882</v>
+        <v>0.88206</v>
       </c>
       <c r="N130" t="n">
         <v>0.9939</v>
@@ -10932,10 +10932,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.529</v>
+        <v>0.5292</v>
       </c>
       <c r="G131" t="n">
-        <v>0.492138828882999</v>
+        <v>0.492161331153109</v>
       </c>
       <c r="H131" t="n">
         <v>1.2</v>
@@ -10949,7 +10949,7 @@
         <v>0.065</v>
       </c>
       <c r="M131" t="n">
-        <v>0.882</v>
+        <v>0.88206</v>
       </c>
       <c r="N131" t="n">
         <v>0.9939</v>
@@ -11482,10 +11482,10 @@
         <v>1.65</v>
       </c>
       <c r="G138" t="n">
-        <v>1.70975151223754</v>
+        <v>1.70047625160455</v>
       </c>
       <c r="H138" t="n">
-        <v>6.19581805068931</v>
+        <v>5.77843132220477</v>
       </c>
       <c r="I138" t="n">
         <v>3.2</v>
@@ -11563,7 +11563,7 @@
         <v>0.006</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0066667862062215</v>
+        <v>0.0066643218017177</v>
       </c>
       <c r="H139" t="n">
         <v>0.031</v>
@@ -11644,7 +11644,7 @@
         <v>0.006</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0066667862062215</v>
+        <v>0.0066643218017177</v>
       </c>
       <c r="H140" t="n">
         <v>0.031</v>
@@ -12139,10 +12139,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.00208</v>
+        <v>0.00214</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0063051415847807</v>
+        <v>0.0063233745717469</v>
       </c>
       <c r="H146" t="n">
         <v>0.06980433477300969</v>
@@ -12153,7 +12153,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.00189</v>
+        <v>0.00195</v>
       </c>
       <c r="M146" t="n">
         <v>0.0097</v>
@@ -12220,10 +12220,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.00208</v>
+        <v>0.00214</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0063051415847807</v>
+        <v>0.0063233745717469</v>
       </c>
       <c r="H147" t="n">
         <v>0.06980433477300969</v>
@@ -12234,7 +12234,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.00189</v>
+        <v>0.00195</v>
       </c>
       <c r="M147" t="n">
         <v>0.0097</v>
@@ -12304,7 +12304,7 @@
         <v>0.50375</v>
       </c>
       <c r="G148" t="n">
-        <v>0.491890078749698</v>
+        <v>0.491901630865015</v>
       </c>
       <c r="H148" t="n">
         <v>1.1914</v>
@@ -12385,7 +12385,7 @@
         <v>0.50375</v>
       </c>
       <c r="G149" t="n">
-        <v>0.491890078749698</v>
+        <v>0.491901630865015</v>
       </c>
       <c r="H149" t="n">
         <v>1.1914</v>
@@ -12536,10 +12536,10 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.5565</v>
+        <v>0.5567</v>
       </c>
       <c r="G151" t="n">
-        <v>0.509672162216332</v>
+        <v>0.509694664486442</v>
       </c>
       <c r="H151" t="n">
         <v>1.21</v>
@@ -12553,7 +12553,7 @@
         <v>0.065</v>
       </c>
       <c r="M151" t="n">
-        <v>0.8829</v>
+        <v>0.88304</v>
       </c>
       <c r="N151" t="n">
         <v>0.9735</v>
@@ -12613,10 +12613,10 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.5565</v>
+        <v>0.5567</v>
       </c>
       <c r="G152" t="n">
-        <v>0.509672162216332</v>
+        <v>0.509694664486442</v>
       </c>
       <c r="H152" t="n">
         <v>1.21</v>
@@ -12630,7 +12630,7 @@
         <v>0.065</v>
       </c>
       <c r="M152" t="n">
-        <v>0.8829</v>
+        <v>0.88304</v>
       </c>
       <c r="N152" t="n">
         <v>0.9735</v>
@@ -13244,7 +13244,7 @@
         <v>0.006</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0079137538066574</v>
+        <v>0.007909163175680601</v>
       </c>
       <c r="H160" t="n">
         <v>0.067</v>
@@ -13325,7 +13325,7 @@
         <v>0.006</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0079137538066574</v>
+        <v>0.007909163175680601</v>
       </c>
       <c r="H161" t="n">
         <v>0.067</v>
@@ -13820,10 +13820,10 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.00259</v>
+        <v>0.00267</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0075926896691304</v>
+        <v>0.0076189127157929</v>
       </c>
       <c r="H167" t="n">
         <v>0.06980433477300969</v>
@@ -13834,7 +13834,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.00319</v>
+        <v>0.00329</v>
       </c>
       <c r="M167" t="n">
         <v>0.01341</v>
@@ -13901,10 +13901,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.00259</v>
+        <v>0.00267</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0075926896691304</v>
+        <v>0.0076189127157929</v>
       </c>
       <c r="H168" t="n">
         <v>0.06980433477300969</v>
@@ -13915,7 +13915,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.00319</v>
+        <v>0.00329</v>
       </c>
       <c r="M168" t="n">
         <v>0.01341</v>
@@ -13985,7 +13985,7 @@
         <v>0.50375</v>
       </c>
       <c r="G169" t="n">
-        <v>0.492890078749698</v>
+        <v>0.492901630865015</v>
       </c>
       <c r="H169" t="n">
         <v>1.1914</v>
@@ -14066,7 +14066,7 @@
         <v>0.50375</v>
       </c>
       <c r="G170" t="n">
-        <v>0.492890078749698</v>
+        <v>0.492901630865015</v>
       </c>
       <c r="H170" t="n">
         <v>1.1914</v>
@@ -14220,7 +14220,7 @@
         <v>0.57</v>
       </c>
       <c r="G172" t="n">
-        <v>0.514505495549666</v>
+        <v>0.514544664486442</v>
       </c>
       <c r="H172" t="n">
         <v>1.21</v>
@@ -14234,7 +14234,7 @@
         <v>0.0675</v>
       </c>
       <c r="M172" t="n">
-        <v>0.8829</v>
+        <v>0.88304</v>
       </c>
       <c r="N172" t="n">
         <v>0.9735</v>
@@ -14297,7 +14297,7 @@
         <v>0.57</v>
       </c>
       <c r="G173" t="n">
-        <v>0.514505495549666</v>
+        <v>0.514544664486442</v>
       </c>
       <c r="H173" t="n">
         <v>1.21</v>
@@ -14311,7 +14311,7 @@
         <v>0.0675</v>
       </c>
       <c r="M173" t="n">
-        <v>0.8829</v>
+        <v>0.88304</v>
       </c>
       <c r="N173" t="n">
         <v>0.9735</v>
@@ -14925,7 +14925,7 @@
         <v>0.006</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0076919530237194</v>
+        <v>0.0076872845854379</v>
       </c>
       <c r="H181" t="n">
         <v>0.067</v>
@@ -15006,7 +15006,7 @@
         <v>0.006</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0076919530237194</v>
+        <v>0.0076872845854379</v>
       </c>
       <c r="H182" t="n">
         <v>0.067</v>
@@ -15501,10 +15501,10 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.00386</v>
+        <v>0.00398</v>
       </c>
       <c r="G188" t="n">
-        <v>0.007972497401395299</v>
+        <v>0.008007031327477701</v>
       </c>
       <c r="H188" t="n">
         <v>0.0583327348997563</v>
@@ -15515,7 +15515,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.00355</v>
+        <v>0.00366</v>
       </c>
       <c r="M188" t="n">
         <v>0.01345</v>
@@ -15582,10 +15582,10 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.00386</v>
+        <v>0.00398</v>
       </c>
       <c r="G189" t="n">
-        <v>0.007972497401395299</v>
+        <v>0.008007031327477701</v>
       </c>
       <c r="H189" t="n">
         <v>0.0583327348997563</v>
@@ -15596,7 +15596,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.00355</v>
+        <v>0.00366</v>
       </c>
       <c r="M189" t="n">
         <v>0.01345</v>
@@ -15666,7 +15666,7 @@
         <v>0.502</v>
       </c>
       <c r="G190" t="n">
-        <v>0.492726812604559</v>
+        <v>0.492744838522619</v>
       </c>
       <c r="H190" t="n">
         <v>1.17</v>
@@ -15747,7 +15747,7 @@
         <v>0.502</v>
       </c>
       <c r="G191" t="n">
-        <v>0.492726812604559</v>
+        <v>0.492744838522619</v>
       </c>
       <c r="H191" t="n">
         <v>1.17</v>
@@ -15901,7 +15901,7 @@
         <v>0.52</v>
       </c>
       <c r="G193" t="n">
-        <v>0.51368355479627</v>
+        <v>0.513694574054009</v>
       </c>
       <c r="H193" t="n">
         <v>1.21</v>
@@ -15915,7 +15915,7 @@
         <v>0.095</v>
       </c>
       <c r="M193" t="n">
-        <v>0.89017</v>
+        <v>0.88998</v>
       </c>
       <c r="N193" t="n">
         <v>0.9739</v>
@@ -15978,7 +15978,7 @@
         <v>0.52</v>
       </c>
       <c r="G194" t="n">
-        <v>0.51368355479627</v>
+        <v>0.513694574054009</v>
       </c>
       <c r="H194" t="n">
         <v>1.21</v>
@@ -15992,7 +15992,7 @@
         <v>0.095</v>
       </c>
       <c r="M194" t="n">
-        <v>0.89017</v>
+        <v>0.88998</v>
       </c>
       <c r="N194" t="n">
         <v>0.9739</v>
@@ -16606,7 +16606,7 @@
         <v>0.006</v>
       </c>
       <c r="G202" t="n">
-        <v>0.007853685323041201</v>
+        <v>0.007849780600929101</v>
       </c>
       <c r="H202" t="n">
         <v>0.067</v>
@@ -16687,7 +16687,7 @@
         <v>0.006</v>
       </c>
       <c r="G203" t="n">
-        <v>0.007853685323041201</v>
+        <v>0.007849780600929101</v>
       </c>
       <c r="H203" t="n">
         <v>0.067</v>
@@ -17185,7 +17185,7 @@
         <v>0.00487</v>
       </c>
       <c r="G209" t="n">
-        <v>0.009212449527384</v>
+        <v>0.009244978970522</v>
       </c>
       <c r="H209" t="n">
         <v>0.071221120038498</v>
@@ -17266,7 +17266,7 @@
         <v>0.00487</v>
       </c>
       <c r="G210" t="n">
-        <v>0.009212449527384</v>
+        <v>0.009244978970522</v>
       </c>
       <c r="H210" t="n">
         <v>0.071221120038498</v>
@@ -17347,7 +17347,7 @@
         <v>0.437</v>
       </c>
       <c r="G211" t="n">
-        <v>0.475370834628123</v>
+        <v>0.475389695861545</v>
       </c>
       <c r="H211" t="n">
         <v>1.17</v>
@@ -17428,7 +17428,7 @@
         <v>0.437</v>
       </c>
       <c r="G212" t="n">
-        <v>0.475370834628123</v>
+        <v>0.475389695861545</v>
       </c>
       <c r="H212" t="n">
         <v>1.17</v>
@@ -17582,7 +17582,7 @@
         <v>0.476</v>
       </c>
       <c r="G214" t="n">
-        <v>0.496612734494998</v>
+        <v>0.496618353000601</v>
       </c>
       <c r="H214" t="n">
         <v>1.21</v>
@@ -17659,7 +17659,7 @@
         <v>0.476</v>
       </c>
       <c r="G215" t="n">
-        <v>0.496612734494998</v>
+        <v>0.496618353000601</v>
       </c>
       <c r="H215" t="n">
         <v>1.21</v>
@@ -18287,7 +18287,7 @@
         <v>0.006</v>
       </c>
       <c r="G223" t="n">
-        <v>0.007974634062812199</v>
+        <v>0.007972078940719499</v>
       </c>
       <c r="H223" t="n">
         <v>0.067</v>
@@ -18368,7 +18368,7 @@
         <v>0.006</v>
       </c>
       <c r="G224" t="n">
-        <v>0.007974634062812199</v>
+        <v>0.007972078940719499</v>
       </c>
       <c r="H224" t="n">
         <v>0.067</v>
@@ -18866,7 +18866,7 @@
         <v>0.00563</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0099500926743288</v>
+        <v>0.009972063523921401</v>
       </c>
       <c r="H230" t="n">
         <v>0.071221120038498</v>
@@ -18947,7 +18947,7 @@
         <v>0.00563</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0099500926743288</v>
+        <v>0.009972063523921401</v>
       </c>
       <c r="H231" t="n">
         <v>0.071221120038498</v>
@@ -19028,7 +19028,7 @@
         <v>0.408</v>
       </c>
       <c r="G232" t="n">
-        <v>0.443854445196229</v>
+        <v>0.443867013414565</v>
       </c>
       <c r="H232" t="n">
         <v>1.17</v>
@@ -19109,7 +19109,7 @@
         <v>0.408</v>
       </c>
       <c r="G233" t="n">
-        <v>0.443854445196229</v>
+        <v>0.443867013414565</v>
       </c>
       <c r="H233" t="n">
         <v>1.17</v>
@@ -19263,7 +19263,7 @@
         <v>0.442</v>
       </c>
       <c r="G235" t="n">
-        <v>0.466275862068966</v>
+        <v>0.466284482758621</v>
       </c>
       <c r="H235" t="n">
         <v>1.21</v>
@@ -19340,7 +19340,7 @@
         <v>0.442</v>
       </c>
       <c r="G236" t="n">
-        <v>0.466275862068966</v>
+        <v>0.466284482758621</v>
       </c>
       <c r="H236" t="n">
         <v>1.21</v>
@@ -19968,7 +19968,7 @@
         <v>0.006</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0081463620825759</v>
+        <v>0.008144639954222601</v>
       </c>
       <c r="H244" t="n">
         <v>0.067</v>
@@ -20049,7 +20049,7 @@
         <v>0.006</v>
       </c>
       <c r="G245" t="n">
-        <v>0.0081463620825759</v>
+        <v>0.008144639954222601</v>
       </c>
       <c r="H245" t="n">
         <v>0.067</v>
@@ -20547,7 +20547,7 @@
         <v>0.00619</v>
       </c>
       <c r="G251" t="n">
-        <v>0.0112830179792449</v>
+        <v>0.0112994867145153</v>
       </c>
       <c r="H251" t="n">
         <v>0.071221120038498</v>
@@ -20628,7 +20628,7 @@
         <v>0.00619</v>
       </c>
       <c r="G252" t="n">
-        <v>0.0112830179792449</v>
+        <v>0.0112994867145153</v>
       </c>
       <c r="H252" t="n">
         <v>0.071221120038498</v>
@@ -20709,7 +20709,7 @@
         <v>0.371</v>
       </c>
       <c r="G253" t="n">
-        <v>0.431216514161746</v>
+        <v>0.431229082380082</v>
       </c>
       <c r="H253" t="n">
         <v>1.24</v>
@@ -20790,7 +20790,7 @@
         <v>0.371</v>
       </c>
       <c r="G254" t="n">
-        <v>0.431216514161746</v>
+        <v>0.431229082380082</v>
       </c>
       <c r="H254" t="n">
         <v>1.24</v>
@@ -20944,7 +20944,7 @@
         <v>0.411</v>
       </c>
       <c r="G256" t="n">
-        <v>0.45598275862069</v>
+        <v>0.455991379310345</v>
       </c>
       <c r="H256" t="n">
         <v>1.283</v>
@@ -21021,7 +21021,7 @@
         <v>0.411</v>
       </c>
       <c r="G257" t="n">
-        <v>0.45598275862069</v>
+        <v>0.455991379310345</v>
       </c>
       <c r="H257" t="n">
         <v>1.283</v>
@@ -21380,6 +21380,1456 @@
         </is>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>60</v>
+      </c>
+      <c r="G262" t="n">
+        <v>72.52361111111109</v>
+      </c>
+      <c r="H262" t="n">
+        <v>240</v>
+      </c>
+      <c r="I262" t="n">
+        <v>184</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>60</v>
+      </c>
+      <c r="M262" t="n">
+        <v>130</v>
+      </c>
+      <c r="N262" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="H263" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I263" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M263" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N263" t="n">
+        <v>2.784</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.0074603212915024</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0074603212915024</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>272</v>
+      </c>
+      <c r="G266" t="n">
+        <v>3382.31034482759</v>
+      </c>
+      <c r="H266" t="n">
+        <v>120000</v>
+      </c>
+      <c r="I266" t="n">
+        <v>10080</v>
+      </c>
+      <c r="J266" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K266" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L266" t="n">
+        <v>270</v>
+      </c>
+      <c r="M266" t="n">
+        <v>2599.2</v>
+      </c>
+      <c r="N266" t="n">
+        <v>4688.26</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P266" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>272</v>
+      </c>
+      <c r="G267" t="n">
+        <v>3382.31034482759</v>
+      </c>
+      <c r="H267" t="n">
+        <v>120000</v>
+      </c>
+      <c r="I267" t="n">
+        <v>10080</v>
+      </c>
+      <c r="J267" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K267" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L267" t="n">
+        <v>270</v>
+      </c>
+      <c r="M267" t="n">
+        <v>2599.2</v>
+      </c>
+      <c r="N267" t="n">
+        <v>4688.26</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P267" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>272</v>
+      </c>
+      <c r="G268" t="n">
+        <v>3382.31034482759</v>
+      </c>
+      <c r="H268" t="n">
+        <v>120000</v>
+      </c>
+      <c r="I268" t="n">
+        <v>10080</v>
+      </c>
+      <c r="J268" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K268" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L268" t="n">
+        <v>270</v>
+      </c>
+      <c r="M268" t="n">
+        <v>2599.2</v>
+      </c>
+      <c r="N268" t="n">
+        <v>4688.26</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P268" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>272</v>
+      </c>
+      <c r="G269" t="n">
+        <v>3382.31034482759</v>
+      </c>
+      <c r="H269" t="n">
+        <v>120000</v>
+      </c>
+      <c r="I269" t="n">
+        <v>10080</v>
+      </c>
+      <c r="J269" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K269" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L269" t="n">
+        <v>270</v>
+      </c>
+      <c r="M269" t="n">
+        <v>2599.2</v>
+      </c>
+      <c r="N269" t="n">
+        <v>4688.26</v>
+      </c>
+      <c r="O269" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P269" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>0.00707</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.011433779869968</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.071221120038498</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.03116</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>0.01196</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.03009</v>
+      </c>
+      <c r="O270" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P270" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>0.00707</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.011433779869968</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.071221120038498</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.03116</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>0.01196</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0.03009</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P271" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.426970461690427</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>0.1185</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.75052</v>
+      </c>
+      <c r="N272" t="n">
+        <v>1.06648</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P272" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.426970461690427</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>0.1185</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.75052</v>
+      </c>
+      <c r="N273" t="n">
+        <v>1.06648</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P273" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.451060344827586</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1.283</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1.1464</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>0.1325</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1.08416</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P274" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.451060344827586</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1.283</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1.1464</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>0.1325</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="N275" t="n">
+        <v>1.08416</v>
+      </c>
+      <c r="O275" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P275" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.741724137931035</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1.1928</v>
+      </c>
+      <c r="N276" t="n">
+        <v>1.3358</v>
+      </c>
+      <c r="O276" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P276" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.741724137931035</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1.1928</v>
+      </c>
+      <c r="N277" t="n">
+        <v>1.3358</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P277" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0555689655172414</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0.08028</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.18644</v>
+      </c>
+      <c r="O278" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P278" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0555689655172414</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0.08028</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.18644</v>
+      </c>
+      <c r="O279" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="P279" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MakakahiatHamua_da24b46cc3.xlsx
+++ b/state_results/Rivers/MakakahiatHamua_da24b46cc3.xlsx
@@ -570,13 +570,13 @@
         <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.95450197500114</v>
+        <v>1.87669127604937</v>
       </c>
       <c r="H2" t="n">
         <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.85</v>
+        <v>4.3875</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>2.4</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2.8725</v>
       </c>
       <c r="N2" t="n">
-        <v>4.355</v>
+        <v>3.765</v>
       </c>
       <c r="O2" t="n">
         <v>1832392</v>
@@ -1862,13 +1862,13 @@
         <v>1.8</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98922924772842</v>
+        <v>1.91141854877664</v>
       </c>
       <c r="H18" t="n">
         <v>6.98</v>
       </c>
       <c r="I18" t="n">
-        <v>5.15647</v>
+        <v>4.675</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1876,10 +1876,10 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>3.83</v>
+        <v>3.52</v>
       </c>
       <c r="O18" t="n">
         <v>1832392</v>
@@ -3308,13 +3308,13 @@
         <v>1.8</v>
       </c>
       <c r="G36" t="n">
-        <v>1.96818386225665</v>
+        <v>1.89037316330487</v>
       </c>
       <c r="H36" t="n">
         <v>6.98</v>
       </c>
       <c r="I36" t="n">
-        <v>5.15647</v>
+        <v>4.625</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3322,10 +3322,10 @@
         <v>1.8</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>2.8725</v>
       </c>
       <c r="N36" t="n">
-        <v>3.65</v>
+        <v>3.455</v>
       </c>
       <c r="O36" t="n">
         <v>1832392</v>
@@ -4835,13 +4835,13 @@
         <v>1.8</v>
       </c>
       <c r="G55" t="n">
-        <v>2.0806762060758</v>
+        <v>2.01360291050394</v>
       </c>
       <c r="H55" t="n">
         <v>6.98</v>
       </c>
       <c r="I55" t="n">
-        <v>5.23552</v>
+        <v>5.1625</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -4849,10 +4849,10 @@
         <v>1.8</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N55" t="n">
-        <v>4.91</v>
+        <v>3.497</v>
       </c>
       <c r="O55" t="n">
         <v>1832392</v>
@@ -6439,13 +6439,13 @@
         <v>1.775</v>
       </c>
       <c r="G75" t="n">
-        <v>1.94417130955908</v>
+        <v>1.87337171978878</v>
       </c>
       <c r="H75" t="n">
         <v>6.98</v>
       </c>
       <c r="I75" t="n">
-        <v>4.8669</v>
+        <v>3.49</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -6453,10 +6453,10 @@
         <v>1.7</v>
       </c>
       <c r="M75" t="n">
-        <v>2.864</v>
+        <v>2.664</v>
       </c>
       <c r="N75" t="n">
-        <v>3.459</v>
+        <v>3.245</v>
       </c>
       <c r="O75" t="n">
         <v>1832392</v>
@@ -8120,7 +8120,7 @@
         <v>1.8</v>
       </c>
       <c r="G96" t="n">
-        <v>1.9355686264441</v>
+        <v>1.94469683833914</v>
       </c>
       <c r="H96" t="n">
         <v>6.98</v>
@@ -9801,10 +9801,10 @@
         <v>1.675</v>
       </c>
       <c r="G117" t="n">
-        <v>1.77481372439576</v>
+        <v>1.78473569384689</v>
       </c>
       <c r="H117" t="n">
-        <v>5.77843132220477</v>
+        <v>6.23484191695681</v>
       </c>
       <c r="I117" t="n">
         <v>3.16</v>
@@ -11482,10 +11482,10 @@
         <v>1.65</v>
       </c>
       <c r="G138" t="n">
-        <v>1.70047625160455</v>
+        <v>1.71061870926571</v>
       </c>
       <c r="H138" t="n">
-        <v>5.77843132220477</v>
+        <v>6.23484191695681</v>
       </c>
       <c r="I138" t="n">
         <v>3.2</v>
